--- a/outputs/survey_ease_rating.xlsx
+++ b/outputs/survey_ease_rating.xlsx
@@ -472,7 +472,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Healthsheet</t>
+          <t>Data Nutrition Label</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Card</t>
+          <t>Accountability Documentation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data Nutrition Label</t>
+          <t>Healthsheet</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -522,7 +522,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Accountability Documentation</t>
+          <t>Data Card</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
